--- a/natmiOut/OldD0/LR-pairs_lrc2p/Saa1-Cd36.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Saa1-Cd36.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Cd36</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.130658872080132</v>
+        <v>0.003050666666666667</v>
       </c>
       <c r="H2">
-        <v>0.130658872080132</v>
+        <v>0.009152</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.02231405966182692</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.02231405966182692</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>141.292844182643</v>
+        <v>181.8232256666666</v>
       </c>
       <c r="N2">
-        <v>141.292844182643</v>
+        <v>545.4696769999999</v>
       </c>
       <c r="O2">
-        <v>0.5335176667404401</v>
+        <v>0.5898296910336229</v>
       </c>
       <c r="P2">
-        <v>0.5335176667404401</v>
+        <v>0.5898296910336229</v>
       </c>
       <c r="Q2">
-        <v>18.46116365389797</v>
+        <v>0.5546820537671111</v>
       </c>
       <c r="R2">
-        <v>18.46116365389797</v>
+        <v>4.992138483903999</v>
       </c>
       <c r="S2">
-        <v>0.5335176667404401</v>
+        <v>0.0131614949160412</v>
       </c>
       <c r="T2">
-        <v>0.5335176667404401</v>
+        <v>0.0131614949160412</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.130658872080132</v>
+        <v>0.003050666666666667</v>
       </c>
       <c r="H3">
-        <v>0.130658872080132</v>
+        <v>0.009152</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.02231405966182692</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.02231405966182692</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.24362358528559</v>
+        <v>2.367786666666667</v>
       </c>
       <c r="N3">
-        <v>2.24362358528559</v>
+        <v>7.10336</v>
       </c>
       <c r="O3">
-        <v>0.008471857348402325</v>
+        <v>0.007681036748263821</v>
       </c>
       <c r="P3">
-        <v>0.008471857348402325</v>
+        <v>0.007681036748263821</v>
       </c>
       <c r="Q3">
-        <v>0.293149327025797</v>
+        <v>0.007223327857777779</v>
       </c>
       <c r="R3">
-        <v>0.293149327025797</v>
+        <v>0.06500995072</v>
       </c>
       <c r="S3">
-        <v>0.008471857348402325</v>
+        <v>0.000171395112265444</v>
       </c>
       <c r="T3">
-        <v>0.008471857348402325</v>
+        <v>0.000171395112265444</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,10 +643,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -655,49 +655,235 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.130658872080132</v>
+        <v>0.003050666666666667</v>
       </c>
       <c r="H4">
-        <v>0.130658872080132</v>
+        <v>0.009152</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.02231405966182692</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.02231405966182692</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>121.296082287781</v>
+        <v>124.0729296666667</v>
       </c>
       <c r="N4">
-        <v>121.296082287781</v>
+        <v>372.218789</v>
       </c>
       <c r="O4">
-        <v>0.4580104759111576</v>
+        <v>0.4024892722181133</v>
       </c>
       <c r="P4">
-        <v>0.4580104759111576</v>
+        <v>0.4024892722181133</v>
       </c>
       <c r="Q4">
-        <v>15.84840929946034</v>
+        <v>0.3785051507697778</v>
       </c>
       <c r="R4">
-        <v>15.84840929946034</v>
+        <v>3.406546356928</v>
       </c>
       <c r="S4">
-        <v>0.4580104759111576</v>
+        <v>0.008981169633520275</v>
       </c>
       <c r="T4">
-        <v>0.4580104759111576</v>
+        <v>0.008981169633520275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.1336643333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.4009929999999999</v>
+      </c>
+      <c r="I5">
+        <v>0.977685940338173</v>
+      </c>
+      <c r="J5">
+        <v>0.9776859403381731</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>181.8232256666666</v>
+      </c>
+      <c r="N5">
+        <v>545.4696769999999</v>
+      </c>
+      <c r="O5">
+        <v>0.5898296910336229</v>
+      </c>
+      <c r="P5">
+        <v>0.5898296910336229</v>
+      </c>
+      <c r="Q5">
+        <v>24.30328024325121</v>
+      </c>
+      <c r="R5">
+        <v>218.7295221892609</v>
+      </c>
+      <c r="S5">
+        <v>0.5766681961175817</v>
+      </c>
+      <c r="T5">
+        <v>0.5766681961175818</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.1336643333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.4009929999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.977685940338173</v>
+      </c>
+      <c r="J6">
+        <v>0.9776859403381731</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2.367786666666667</v>
+      </c>
+      <c r="N6">
+        <v>7.10336</v>
+      </c>
+      <c r="O6">
+        <v>0.007681036748263821</v>
+      </c>
+      <c r="P6">
+        <v>0.007681036748263821</v>
+      </c>
+      <c r="Q6">
+        <v>0.3164886262755555</v>
+      </c>
+      <c r="R6">
+        <v>2.84839763648</v>
+      </c>
+      <c r="S6">
+        <v>0.007509641635998376</v>
+      </c>
+      <c r="T6">
+        <v>0.007509641635998377</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.1336643333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.4009929999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.977685940338173</v>
+      </c>
+      <c r="J7">
+        <v>0.9776859403381731</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>124.0729296666667</v>
+      </c>
+      <c r="N7">
+        <v>372.218789</v>
+      </c>
+      <c r="O7">
+        <v>0.4024892722181133</v>
+      </c>
+      <c r="P7">
+        <v>0.4024892722181133</v>
+      </c>
+      <c r="Q7">
+        <v>16.58412542860855</v>
+      </c>
+      <c r="R7">
+        <v>149.257128857477</v>
+      </c>
+      <c r="S7">
+        <v>0.393508102584593</v>
+      </c>
+      <c r="T7">
+        <v>0.393508102584593</v>
       </c>
     </row>
   </sheetData>
